--- a/public/downloads/100-RAW-STRICT-CURL-WORLD-CUP-2023-GB.xlsx
+++ b/public/downloads/100-RAW-STRICT-CURL-WORLD-CUP-2023-GB.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/packleaders/Library/Containers/com.apple.mail/Data/Library/Mail Downloads/26C9BCFD-A206-4A6F-B3AF-10BA6FAC1636/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFB84E8B-06FC-CF49-BCDF-E83A918A09E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 100%-RAW-WOULD-CUP-CO" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - 100%-RAW-WOULD-CUP-CO" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
   <si>
     <t>100%-RAW-WOULD-CUP-COVENTRY, ENGLAND 21ST/10/2023</t>
   </si>
@@ -148,18 +157,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -174,7 +175,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -369,196 +370,196 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="62">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,35 +569,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="fffefb00"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffdb424a"/>
-      <rgbColor rgb="ffdb413d"/>
-      <rgbColor rgb="ffdb383f"/>
-      <rgbColor rgb="ffdb2328"/>
-      <rgbColor rgb="ffdb2826"/>
-      <rgbColor rgb="ffdb291b"/>
-      <rgbColor rgb="ffdb3a46"/>
-      <rgbColor rgb="ffdb2c28"/>
-      <rgbColor rgb="ffdb3c2c"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFEFB00"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFDB424A"/>
+      <rgbColor rgb="FFDB413D"/>
+      <rgbColor rgb="FFDB383F"/>
+      <rgbColor rgb="FFDB2328"/>
+      <rgbColor rgb="FFDB2826"/>
+      <rgbColor rgb="FFDB291B"/>
+      <rgbColor rgb="FFDB3A46"/>
+      <rgbColor rgb="FFDB2C28"/>
+      <rgbColor rgb="FFDB3C2C"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -795,7 +846,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -814,7 +865,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,7 +895,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -870,7 +921,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -896,7 +947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -922,7 +973,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -948,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -974,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1000,7 +1051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,7 +1077,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1052,7 +1103,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1065,9 +1116,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1084,7 +1141,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1103,7 +1160,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1129,7 +1186,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1155,7 +1212,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1181,7 +1238,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1207,7 +1264,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1233,7 +1290,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1259,7 +1316,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1285,7 +1342,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,7 +1368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1337,7 +1394,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1350,9 +1407,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1366,7 +1429,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1385,7 +1448,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1415,7 +1478,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1441,7 +1504,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1467,7 +1530,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1493,7 +1556,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1519,7 +1582,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1545,7 +1608,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1571,7 +1634,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1597,7 +1660,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1623,7 +1686,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1636,838 +1699,846 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M26"/>
+  <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="21.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.17188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.35156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.17188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.67188" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.17188" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" style="1" customWidth="1"/>
     <col min="7" max="9" width="7.5" style="1" customWidth="1"/>
-    <col min="10" max="13" width="9.17188" style="1" customWidth="1"/>
-    <col min="14" max="256" width="8.35156" style="1" customWidth="1"/>
+    <col min="10" max="13" width="9.1640625" style="1" customWidth="1"/>
+    <col min="14" max="256" width="8.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
-    <row r="2" ht="21.2" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:13" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="3">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
-    <row r="3" ht="21.2" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:13" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>98</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>100</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8">
+      <c r="F3" s="8"/>
+      <c r="G3" s="7">
         <v>-25</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>-27.5</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>27.5</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" t="s" s="7">
+      <c r="J3" s="8"/>
+      <c r="K3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" t="s" s="7">
+      <c r="L3" s="8"/>
+      <c r="M3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="21" customHeight="1">
-      <c r="A4" t="s" s="10">
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="D4" s="12">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="E4" s="12">
         <v>67.5</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13">
+      <c r="F4" s="13"/>
+      <c r="G4" s="12">
         <v>20</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>25</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>30</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" t="s" s="12">
+      <c r="J4" s="13"/>
+      <c r="K4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" t="s" s="12">
+      <c r="L4" s="13"/>
+      <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="21" customHeight="1">
-      <c r="A5" t="s" s="15">
+    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s" s="16">
+      <c r="B5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="17">
+        <v>66.45</v>
+      </c>
+      <c r="E5" s="17">
+        <v>67.5</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17">
+        <v>40</v>
+      </c>
+      <c r="H5" s="17">
+        <v>45</v>
+      </c>
+      <c r="I5" s="17">
+        <v>47.5</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="22">
+        <v>88.65</v>
+      </c>
+      <c r="E6" s="22">
+        <v>90</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22">
+        <v>50</v>
+      </c>
+      <c r="H6" s="22">
+        <v>60</v>
+      </c>
+      <c r="I6" s="22">
+        <v>-67.5</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="17">
+        <v>104.05</v>
+      </c>
+      <c r="E7" s="17">
+        <v>110</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17">
+        <v>65</v>
+      </c>
+      <c r="H7" s="17">
+        <v>70</v>
+      </c>
+      <c r="I7" s="17">
+        <v>75</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="27">
+        <v>111.2</v>
+      </c>
+      <c r="E8" s="27">
+        <v>125</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="27">
+        <v>-78</v>
+      </c>
+      <c r="H8" s="27">
+        <v>78</v>
+      </c>
+      <c r="I8" s="27">
+        <v>80</v>
+      </c>
+      <c r="J8" s="27">
+        <v>82.5</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="17">
+        <v>89.8</v>
+      </c>
+      <c r="E9" s="17">
+        <v>90</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17">
+        <v>62.5</v>
+      </c>
+      <c r="H9" s="17">
+        <v>67.5</v>
+      </c>
+      <c r="I9" s="17">
+        <v>70</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="32">
+        <v>81.150000000000006</v>
+      </c>
+      <c r="E10" s="32">
+        <v>82.5</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="32">
+        <v>-40</v>
+      </c>
+      <c r="H10" s="32">
+        <v>40</v>
+      </c>
+      <c r="I10" s="32">
+        <v>45</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="K10" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="33"/>
+      <c r="M10" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="17">
+        <v>82.5</v>
+      </c>
+      <c r="E11" s="17">
+        <v>82.5</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17">
+        <v>32.5</v>
+      </c>
+      <c r="H11" s="17">
+        <v>-38.5</v>
+      </c>
+      <c r="I11" s="17">
+        <v>-38.5</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="37">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="E12" s="37">
+        <v>75</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="37">
+        <v>45</v>
+      </c>
+      <c r="H12" s="37">
+        <v>52.5</v>
+      </c>
+      <c r="I12" s="37">
+        <v>57.5</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="17">
+        <v>89.8</v>
+      </c>
+      <c r="E13" s="17">
+        <v>90</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17">
+        <v>62.5</v>
+      </c>
+      <c r="H13" s="17">
+        <v>67.5</v>
+      </c>
+      <c r="I13" s="17">
+        <v>70</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s" s="17">
+      <c r="C14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="18">
-        <v>66.45</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="D14" s="42">
+        <v>99.45</v>
+      </c>
+      <c r="E14" s="42">
+        <v>100</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="42">
+        <v>57.5</v>
+      </c>
+      <c r="H14" s="42">
+        <v>62.5</v>
+      </c>
+      <c r="I14" s="42">
+        <v>70</v>
+      </c>
+      <c r="J14" s="43"/>
+      <c r="K14" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="43"/>
+      <c r="M14" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="17">
+        <v>100</v>
+      </c>
+      <c r="E15" s="17">
+        <v>100</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17">
+        <v>65</v>
+      </c>
+      <c r="H15" s="17">
+        <v>-75</v>
+      </c>
+      <c r="I15" s="17">
+        <v>-77.5</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="47">
+        <v>107.75</v>
+      </c>
+      <c r="E16" s="47">
+        <v>110</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="47">
+        <v>50</v>
+      </c>
+      <c r="H16" s="47">
+        <v>60</v>
+      </c>
+      <c r="I16" s="47">
         <v>67.5</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18">
+      <c r="J16" s="47">
+        <v>-72.5</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="18">
-        <v>45</v>
-      </c>
-      <c r="I5" s="18">
+      <c r="B17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="17">
+        <v>118.85</v>
+      </c>
+      <c r="E17" s="17">
+        <v>125</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17">
+        <v>90</v>
+      </c>
+      <c r="H17" s="17">
+        <v>95</v>
+      </c>
+      <c r="I17" s="17">
+        <v>97.5</v>
+      </c>
+      <c r="J17" s="17">
+        <v>100</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="52">
+        <v>111.2</v>
+      </c>
+      <c r="E18" s="52">
+        <v>125</v>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="52">
+        <v>-78</v>
+      </c>
+      <c r="H18" s="52">
+        <v>78</v>
+      </c>
+      <c r="I18" s="52">
+        <v>80</v>
+      </c>
+      <c r="J18" s="52">
+        <v>82.5</v>
+      </c>
+      <c r="K18" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="17">
+        <v>132.65</v>
+      </c>
+      <c r="E19" s="17">
+        <v>140</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17">
+        <v>50</v>
+      </c>
+      <c r="H19" s="17">
+        <v>57.5</v>
+      </c>
+      <c r="I19" s="17">
+        <v>-65</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="57">
+        <v>137.25</v>
+      </c>
+      <c r="E20" s="57">
+        <v>140</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="57">
+        <v>40</v>
+      </c>
+      <c r="H20" s="57">
         <v>47.5</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" t="s" s="17">
+      <c r="I20" s="57">
+        <v>52.5</v>
+      </c>
+      <c r="J20" s="58"/>
+      <c r="K20" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" t="s" s="17">
-        <v>16</v>
+      <c r="L20" s="58"/>
+      <c r="M20" s="56" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" ht="21" customHeight="1">
-      <c r="A6" t="s" s="20">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s" s="21">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s" s="22">
-        <v>23</v>
-      </c>
-      <c r="D6" s="23">
-        <v>88.65000000000001</v>
-      </c>
-      <c r="E6" s="23">
-        <v>90</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="23">
-        <v>50</v>
-      </c>
-      <c r="H6" s="23">
-        <v>60</v>
-      </c>
-      <c r="I6" s="23">
-        <v>-67.5</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" t="s" s="22">
-        <v>15</v>
-      </c>
-      <c r="L6" s="24"/>
-      <c r="M6" t="s" s="22">
-        <v>24</v>
-      </c>
+    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="59"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
     </row>
-    <row r="7" ht="21" customHeight="1">
-      <c r="A7" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s" s="17">
-        <v>23</v>
-      </c>
-      <c r="D7" s="18">
-        <v>104.05</v>
-      </c>
-      <c r="E7" s="18">
-        <v>110</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18">
-        <v>65</v>
-      </c>
-      <c r="H7" s="18">
-        <v>70</v>
-      </c>
-      <c r="I7" s="18">
-        <v>75</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="K7" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="L7" s="19"/>
-      <c r="M7" t="s" s="17">
-        <v>24</v>
-      </c>
+    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
     </row>
-    <row r="8" ht="21" customHeight="1">
-      <c r="A8" t="s" s="25">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s" s="26">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="27">
-        <v>23</v>
-      </c>
-      <c r="D8" s="28">
-        <v>111.2</v>
-      </c>
-      <c r="E8" s="28">
-        <v>125</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28">
-        <v>-78</v>
-      </c>
-      <c r="H8" s="28">
-        <v>78</v>
-      </c>
-      <c r="I8" s="28">
-        <v>80</v>
-      </c>
-      <c r="J8" s="28">
-        <v>82.5</v>
-      </c>
-      <c r="K8" t="s" s="27">
-        <v>15</v>
-      </c>
-      <c r="L8" s="29"/>
-      <c r="M8" t="s" s="27">
-        <v>24</v>
-      </c>
+    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
     </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s" s="17">
-        <v>14</v>
-      </c>
-      <c r="D9" s="18">
-        <v>89.8</v>
-      </c>
-      <c r="E9" s="18">
-        <v>90</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18">
-        <v>62.5</v>
-      </c>
-      <c r="H9" s="18">
-        <v>67.5</v>
-      </c>
-      <c r="I9" s="18">
-        <v>70</v>
-      </c>
-      <c r="J9" s="19"/>
-      <c r="K9" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9" t="s" s="17">
-        <v>24</v>
-      </c>
+    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="59"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
     </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s" s="31">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s" s="32">
-        <v>31</v>
-      </c>
-      <c r="D10" s="33">
-        <v>81.15000000000001</v>
-      </c>
-      <c r="E10" s="33">
-        <v>82.5</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="33">
-        <v>-40</v>
-      </c>
-      <c r="H10" s="33">
-        <v>40</v>
-      </c>
-      <c r="I10" s="33">
-        <v>45</v>
-      </c>
-      <c r="J10" s="34"/>
-      <c r="K10" t="s" s="32">
-        <v>15</v>
-      </c>
-      <c r="L10" s="34"/>
-      <c r="M10" t="s" s="32">
-        <v>24</v>
-      </c>
+    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="59"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
     </row>
-    <row r="11" ht="21" customHeight="1">
-      <c r="A11" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s" s="16">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s" s="17">
-        <v>33</v>
-      </c>
-      <c r="D11" s="18">
-        <v>82.5</v>
-      </c>
-      <c r="E11" s="18">
-        <v>82.5</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18">
-        <v>32.5</v>
-      </c>
-      <c r="H11" s="18">
-        <v>-38.5</v>
-      </c>
-      <c r="I11" s="18">
-        <v>-38.5</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="L11" t="s" s="17">
-        <v>34</v>
-      </c>
-      <c r="M11" t="s" s="17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="21" customHeight="1">
-      <c r="A12" t="s" s="35">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s" s="36">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s" s="37">
-        <v>21</v>
-      </c>
-      <c r="D12" s="38">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="E12" s="38">
-        <v>75</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="38">
-        <v>45</v>
-      </c>
-      <c r="H12" s="38">
-        <v>52.5</v>
-      </c>
-      <c r="I12" s="38">
-        <v>57.5</v>
-      </c>
-      <c r="J12" s="39"/>
-      <c r="K12" t="s" s="37">
-        <v>15</v>
-      </c>
-      <c r="L12" t="s" s="37">
-        <v>36</v>
-      </c>
-      <c r="M12" t="s" s="37">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" ht="21" customHeight="1">
-      <c r="A13" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="D13" s="18">
-        <v>89.8</v>
-      </c>
-      <c r="E13" s="18">
-        <v>90</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18">
-        <v>62.5</v>
-      </c>
-      <c r="H13" s="18">
-        <v>67.5</v>
-      </c>
-      <c r="I13" s="18">
-        <v>70</v>
-      </c>
-      <c r="J13" s="19"/>
-      <c r="K13" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="L13" s="19"/>
-      <c r="M13" t="s" s="17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" ht="21" customHeight="1">
-      <c r="A14" t="s" s="40">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s" s="41">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s" s="42">
-        <v>21</v>
-      </c>
-      <c r="D14" s="43">
-        <v>99.45</v>
-      </c>
-      <c r="E14" s="43">
-        <v>100</v>
-      </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="43">
-        <v>57.5</v>
-      </c>
-      <c r="H14" s="43">
-        <v>62.5</v>
-      </c>
-      <c r="I14" s="43">
-        <v>70</v>
-      </c>
-      <c r="J14" s="44"/>
-      <c r="K14" t="s" s="42">
-        <v>15</v>
-      </c>
-      <c r="L14" s="44"/>
-      <c r="M14" t="s" s="42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="21" customHeight="1">
-      <c r="A15" t="s" s="15">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s" s="16">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="D15" s="18">
-        <v>100</v>
-      </c>
-      <c r="E15" s="18">
-        <v>100</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18">
-        <v>65</v>
-      </c>
-      <c r="H15" s="18">
-        <v>-75</v>
-      </c>
-      <c r="I15" s="18">
-        <v>-77.5</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="L15" s="19"/>
-      <c r="M15" t="s" s="17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" ht="21" customHeight="1">
-      <c r="A16" t="s" s="45">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s" s="46">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s" s="47">
-        <v>21</v>
-      </c>
-      <c r="D16" s="48">
-        <v>107.75</v>
-      </c>
-      <c r="E16" s="48">
-        <v>110</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="48">
-        <v>50</v>
-      </c>
-      <c r="H16" s="48">
-        <v>60</v>
-      </c>
-      <c r="I16" s="48">
-        <v>67.5</v>
-      </c>
-      <c r="J16" s="48">
-        <v>-72.5</v>
-      </c>
-      <c r="K16" t="s" s="47">
-        <v>15</v>
-      </c>
-      <c r="L16" t="s" s="47">
-        <v>36</v>
-      </c>
-      <c r="M16" t="s" s="47">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" ht="21" customHeight="1">
-      <c r="A17" t="s" s="15">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s" s="16">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="D17" s="18">
-        <v>118.85</v>
-      </c>
-      <c r="E17" s="18">
-        <v>125</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18">
-        <v>90</v>
-      </c>
-      <c r="H17" s="18">
-        <v>95</v>
-      </c>
-      <c r="I17" s="18">
-        <v>97.5</v>
-      </c>
-      <c r="J17" s="18">
-        <v>100</v>
-      </c>
-      <c r="K17" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="L17" t="s" s="17">
-        <v>34</v>
-      </c>
-      <c r="M17" t="s" s="17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" ht="21" customHeight="1">
-      <c r="A18" t="s" s="50">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s" s="51">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s" s="52">
-        <v>21</v>
-      </c>
-      <c r="D18" s="53">
-        <v>111.2</v>
-      </c>
-      <c r="E18" s="53">
-        <v>125</v>
-      </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="53">
-        <v>-78</v>
-      </c>
-      <c r="H18" s="53">
-        <v>78</v>
-      </c>
-      <c r="I18" s="53">
-        <v>80</v>
-      </c>
-      <c r="J18" s="53">
-        <v>82.5</v>
-      </c>
-      <c r="K18" t="s" s="52">
-        <v>15</v>
-      </c>
-      <c r="L18" t="s" s="52">
-        <v>34</v>
-      </c>
-      <c r="M18" t="s" s="52">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" ht="21" customHeight="1">
-      <c r="A19" t="s" s="15">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s" s="16">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="D19" s="18">
-        <v>132.65</v>
-      </c>
-      <c r="E19" s="18">
-        <v>140</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="18">
-        <v>50</v>
-      </c>
-      <c r="H19" s="18">
-        <v>57.5</v>
-      </c>
-      <c r="I19" s="18">
-        <v>-65</v>
-      </c>
-      <c r="J19" s="19"/>
-      <c r="K19" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="L19" s="19"/>
-      <c r="M19" t="s" s="17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" ht="21" customHeight="1">
-      <c r="A20" t="s" s="55">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s" s="56">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s" s="57">
-        <v>43</v>
-      </c>
-      <c r="D20" s="58">
-        <v>137.25</v>
-      </c>
-      <c r="E20" s="58">
-        <v>140</v>
-      </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="58">
-        <v>40</v>
-      </c>
-      <c r="H20" s="58">
-        <v>47.5</v>
-      </c>
-      <c r="I20" s="58">
-        <v>52.5</v>
-      </c>
-      <c r="J20" s="59"/>
-      <c r="K20" t="s" s="57">
-        <v>15</v>
-      </c>
-      <c r="L20" s="59"/>
-      <c r="M20" t="s" s="57">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" ht="21" customHeight="1">
-      <c r="A21" s="60"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-    </row>
-    <row r="22" ht="21" customHeight="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" ht="21" customHeight="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" ht="21" customHeight="1">
-      <c r="A24" s="60"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" ht="21" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" ht="21" customHeight="1">
-      <c r="A26" s="60"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
+    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
